--- a/data/trans_bre/P19-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.773432101073499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.964620774422412</v>
+        <v>6.964620774422409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4110906524106618</v>
@@ -649,7 +649,7 @@
         <v>0.3311609465479637</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4528156358532474</v>
+        <v>0.4528156358532473</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.614913901049905</v>
+        <v>3.44046676786142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9250499691995296</v>
+        <v>0.8121151396683972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.911978033901212</v>
+        <v>4.270915146264395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.41883485207564</v>
+        <v>1.973635786963197</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1642403929538318</v>
+        <v>0.1495469388877392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03606957141453485</v>
+        <v>0.03997606031431942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.154429415728642</v>
+        <v>0.1642182015536123</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.07156370864489256</v>
+        <v>0.110780244523859</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.61064009687868</v>
+        <v>12.32864643446609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.775716589628972</v>
+        <v>8.124779784012372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.64032196232536</v>
+        <v>11.36338213655356</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.42436675380019</v>
+        <v>11.41788121556874</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7872268239084547</v>
+        <v>0.7521392941868928</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4600514511056275</v>
+        <v>0.4345643758275837</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5391121315239905</v>
+        <v>0.5306225072218431</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8908943216578379</v>
+        <v>0.9082523377772456</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.312334282336949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.610616058728222</v>
+        <v>6.610616058728214</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2977599293426403</v>
@@ -749,7 +749,7 @@
         <v>0.1402763620075072</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3437084891522407</v>
+        <v>0.3437084891522403</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.241438027605642</v>
+        <v>2.683981501145582</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.715750415000641</v>
+        <v>4.710625104227919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02706535183548091</v>
+        <v>-0.02515698796355382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.686926154374921</v>
+        <v>2.853318545716161</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1366686876585727</v>
+        <v>0.1102426550884778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1923850602374206</v>
+        <v>0.1915008468543623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.001631981068014667</v>
+        <v>-0.001137227495058486</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1091673461770179</v>
+        <v>0.1289627447963085</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.8218052422337</v>
+        <v>10.31842485055885</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.58278094437531</v>
+        <v>12.56275110561763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.756363821179248</v>
+        <v>8.451340665155572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.33963868404407</v>
+        <v>10.4275752814292</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5280464582577105</v>
+        <v>0.5009867263392539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6442950546036977</v>
+        <v>0.622201873365789</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3090122519106448</v>
+        <v>0.2897115429357605</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5966365053680143</v>
+        <v>0.6214334374668599</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.214505939730122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.082298660365336</v>
+        <v>5.082298660365342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2498684972432366</v>
@@ -849,7 +849,7 @@
         <v>0.09811820664356659</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1678157664882688</v>
+        <v>0.167815766488269</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.913531411112582</v>
+        <v>3.106147263612034</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.465004862439366</v>
+        <v>2.262940810651026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.607130841673709</v>
+        <v>-1.425987768394074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.045841664240776</v>
+        <v>1.100392242737411</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1003347577392636</v>
+        <v>0.1012233629940546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08026502066340285</v>
+        <v>0.07983806920882149</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04728789950748618</v>
+        <v>-0.03849669544471383</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03345547663375627</v>
+        <v>0.03170273230283684</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.31256276242034</v>
+        <v>11.20398923611113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.29931284923619</v>
+        <v>11.02966838215547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.079920797877968</v>
+        <v>8.152484404286291</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.002017951660346</v>
+        <v>9.351217724527118</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4310254620514452</v>
+        <v>0.4268491844878152</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4348766531892808</v>
+        <v>0.4298352600045163</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2636080292995987</v>
+        <v>0.2722933127371978</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3322858299540501</v>
+        <v>0.3338229847992673</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.916261810725383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.068794517510577</v>
+        <v>4.068794517510571</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3458360377864542</v>
@@ -949,7 +949,7 @@
         <v>0.2478830065613369</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.117759570285401</v>
+        <v>0.1177595702854008</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.580190180561458</v>
+        <v>3.163856089105876</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.415078630893478</v>
+        <v>-5.71758481626004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.743744068118281</v>
+        <v>1.575342075608799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8714606195368874</v>
+        <v>-0.513043062508678</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1008137703425704</v>
+        <v>0.08974058426643622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1795388950250659</v>
+        <v>-0.1630223679820594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04849552896254748</v>
+        <v>0.04319078201230678</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02092177470552288</v>
+        <v>-0.009123122818230241</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.30250522610773</v>
+        <v>17.33060327111868</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.855059756124652</v>
+        <v>6.756219704708364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.79012733709181</v>
+        <v>14.60939861262002</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.37922315467342</v>
+        <v>8.252371326315103</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6131257999697322</v>
+        <v>0.6363132405082077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2274886468662892</v>
+        <v>0.2247700800175866</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4678369878114795</v>
+        <v>0.5059370332028764</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.271103929331085</v>
+        <v>0.2604593840805376</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.581393588346534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.799207996402854</v>
+        <v>4.799207996402849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2657978457014783</v>
@@ -1049,7 +1049,7 @@
         <v>0.1925904266540333</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1823937614866423</v>
+        <v>0.1823937614866421</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.207770700926615</v>
+        <v>4.452959726315661</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.22414472970209</v>
+        <v>3.368939473139076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.233357348986774</v>
+        <v>3.548835608283284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.537443188443991</v>
+        <v>2.578261460372498</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1638670730972443</v>
+        <v>0.1730679345142558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1241421504328926</v>
+        <v>0.1314584811503317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1063015956925631</v>
+        <v>0.117817051551356</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09160104266764493</v>
+        <v>0.08831767104972829</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.645165186061057</v>
+        <v>8.688568461247391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.774343359015834</v>
+        <v>7.874628174096186</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.609346989454474</v>
+        <v>7.812987498471307</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.870356841277695</v>
+        <v>7.14988985008409</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3640128763529043</v>
+        <v>0.3651354526964494</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3309381092690278</v>
+        <v>0.3330317032130218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2754784327628959</v>
+        <v>0.2782217824033451</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2749385373773988</v>
+        <v>0.285170848405284</v>
       </c>
     </row>
     <row r="19">
